--- a/MEDIA/3005_拉亞直營營業額(2019-12-01~2019-12-31).xlsx
+++ b/MEDIA/3005_拉亞直營營業額(2019-12-01~2019-12-31).xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA33"/>
+  <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,38 +510,38 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>22570</v>
+        <v>35855</v>
       </c>
       <c r="E3" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F3" t="n">
-        <v>9700</v>
+        <v>15575</v>
       </c>
       <c r="G3" t="n">
-        <v>43</v>
+        <v>43.4</v>
       </c>
       <c r="H3" t="n">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I3" t="n">
-        <v>7215</v>
+        <v>8905</v>
       </c>
       <c r="J3" t="n">
-        <v>32</v>
+        <v>24.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>6760</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>18.9</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -553,22 +553,22 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>1815</v>
+        <v>1600</v>
       </c>
       <c r="S3" t="n">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="T3" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>3840</v>
+        <v>3015</v>
       </c>
       <c r="V3" t="n">
-        <v>17</v>
+        <v>8.4</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -580,10 +580,10 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AA3" t="n">
-        <v>120</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4">
@@ -599,38 +599,38 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>17268</v>
+        <v>23935</v>
       </c>
       <c r="E4" t="n">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="F4" t="n">
-        <v>9588</v>
+        <v>9430</v>
       </c>
       <c r="G4" t="n">
-        <v>55.5</v>
+        <v>39.4</v>
       </c>
       <c r="H4" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I4" t="n">
-        <v>4510</v>
+        <v>6569</v>
       </c>
       <c r="J4" t="n">
-        <v>26.1</v>
+        <v>27.4</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4786</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -642,22 +642,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1140</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="T4" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="U4" t="n">
-        <v>3170</v>
+        <v>2010</v>
       </c>
       <c r="V4" t="n">
-        <v>18.4</v>
+        <v>8.4</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="AA4" t="n">
-        <v>96</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5">
@@ -688,38 +688,38 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>16848</v>
+        <v>28940</v>
       </c>
       <c r="E5" t="n">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="F5" t="n">
-        <v>8993</v>
+        <v>9605</v>
       </c>
       <c r="G5" t="n">
-        <v>53.4</v>
+        <v>33.2</v>
       </c>
       <c r="H5" t="n">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="I5" t="n">
-        <v>4945</v>
+        <v>8030</v>
       </c>
       <c r="J5" t="n">
-        <v>29.4</v>
+        <v>27.7</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>7600</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>26.3</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -731,22 +731,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>980</v>
+        <v>1125</v>
       </c>
       <c r="S5" t="n">
-        <v>5.8</v>
+        <v>3.9</v>
       </c>
       <c r="T5" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>1930</v>
+        <v>2580</v>
       </c>
       <c r="V5" t="n">
-        <v>11.5</v>
+        <v>8.9</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="AA5" t="n">
-        <v>103</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6">
@@ -777,38 +777,38 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>18774</v>
+        <v>22715</v>
       </c>
       <c r="E6" t="n">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F6" t="n">
-        <v>9169</v>
+        <v>9165</v>
       </c>
       <c r="G6" t="n">
-        <v>48.8</v>
+        <v>40.3</v>
       </c>
       <c r="H6" t="n">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I6" t="n">
-        <v>6610</v>
+        <v>4901</v>
       </c>
       <c r="J6" t="n">
-        <v>35.2</v>
+        <v>21.6</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>5994</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>26.4</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1585</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>1410</v>
+        <v>2655</v>
       </c>
       <c r="V6" t="n">
-        <v>7.5</v>
+        <v>11.7</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -847,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="AA6" t="n">
-        <v>110</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7">
@@ -866,38 +866,38 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>17118</v>
+        <v>24113</v>
       </c>
       <c r="E7" t="n">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="F7" t="n">
-        <v>8128</v>
+        <v>7750</v>
       </c>
       <c r="G7" t="n">
-        <v>47.5</v>
+        <v>32.1</v>
       </c>
       <c r="H7" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I7" t="n">
-        <v>5195</v>
+        <v>5840</v>
       </c>
       <c r="J7" t="n">
-        <v>30.3</v>
+        <v>24.2</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>5673</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -909,22 +909,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>1250</v>
+        <v>3220</v>
       </c>
       <c r="S7" t="n">
-        <v>7.3</v>
+        <v>13.4</v>
       </c>
       <c r="T7" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="U7" t="n">
-        <v>2545</v>
+        <v>1630</v>
       </c>
       <c r="V7" t="n">
-        <v>14.9</v>
+        <v>6.8</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -936,57 +936,57 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="AA7" t="n">
-        <v>111</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2019-12-07</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>六</t>
+          <t>五</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>21190</v>
+        <v>22195</v>
       </c>
       <c r="E8" t="n">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F8" t="n">
-        <v>7130</v>
+        <v>7970</v>
       </c>
       <c r="G8" t="n">
-        <v>33.6</v>
+        <v>35.9</v>
       </c>
       <c r="H8" t="n">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="I8" t="n">
-        <v>7995</v>
+        <v>5355</v>
       </c>
       <c r="J8" t="n">
-        <v>37.7</v>
+        <v>24.1</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>2840</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -998,22 +998,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>1340</v>
+        <v>3020</v>
       </c>
       <c r="S8" t="n">
-        <v>6.3</v>
+        <v>13.6</v>
       </c>
       <c r="T8" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>4725</v>
+        <v>3010</v>
       </c>
       <c r="V8" t="n">
-        <v>22.3</v>
+        <v>13.6</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1025,57 +1025,57 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="AA8" t="n">
-        <v>131</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2019-12-08</t>
+          <t>2019-12-07</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>六</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>25516</v>
+        <v>38020</v>
       </c>
       <c r="E9" t="n">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F9" t="n">
-        <v>10355</v>
+        <v>11795</v>
       </c>
       <c r="G9" t="n">
-        <v>40.6</v>
+        <v>31</v>
       </c>
       <c r="H9" t="n">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="I9" t="n">
-        <v>10401</v>
+        <v>8465</v>
       </c>
       <c r="J9" t="n">
-        <v>40.8</v>
+        <v>22.3</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>7430</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1087,22 +1087,22 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>5860</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="T9" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="U9" t="n">
-        <v>4760</v>
+        <v>4470</v>
       </c>
       <c r="V9" t="n">
-        <v>18.7</v>
+        <v>11.8</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1114,57 +1114,57 @@
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="AA9" t="n">
-        <v>143</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-08</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>一</t>
+          <t>日</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>17520</v>
+        <v>38430</v>
       </c>
       <c r="E10" t="n">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="F10" t="n">
-        <v>6940</v>
+        <v>16366</v>
       </c>
       <c r="G10" t="n">
-        <v>39.6</v>
+        <v>42.6</v>
       </c>
       <c r="H10" t="n">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="I10" t="n">
-        <v>8480</v>
+        <v>10684</v>
       </c>
       <c r="J10" t="n">
-        <v>48.4</v>
+        <v>27.8</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>3750</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>3410</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="T10" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="U10" t="n">
-        <v>2100</v>
+        <v>4220</v>
       </c>
       <c r="V10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1203,57 +1203,57 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="AA10" t="n">
-        <v>104</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>二</t>
+          <t>一</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>16461</v>
+        <v>25410</v>
       </c>
       <c r="E11" t="n">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="F11" t="n">
-        <v>6770</v>
+        <v>9245</v>
       </c>
       <c r="G11" t="n">
-        <v>41.1</v>
+        <v>36.4</v>
       </c>
       <c r="H11" t="n">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="I11" t="n">
-        <v>6916</v>
+        <v>10930</v>
       </c>
       <c r="J11" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>515</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>1</v>
       </c>
       <c r="R11" t="n">
-        <v>285</v>
+        <v>2150</v>
       </c>
       <c r="S11" t="n">
-        <v>1.7</v>
+        <v>8.5</v>
       </c>
       <c r="T11" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="U11" t="n">
-        <v>2490</v>
+        <v>2570</v>
       </c>
       <c r="V11" t="n">
-        <v>15.1</v>
+        <v>10.1</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1292,57 +1292,57 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AA11" t="n">
-        <v>99</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>三</t>
+          <t>二</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>20459</v>
+        <v>27742</v>
       </c>
       <c r="E12" t="n">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="F12" t="n">
-        <v>7105</v>
+        <v>10945</v>
       </c>
       <c r="G12" t="n">
-        <v>34.7</v>
+        <v>39.5</v>
       </c>
       <c r="H12" t="n">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="I12" t="n">
-        <v>10419</v>
+        <v>6335</v>
       </c>
       <c r="J12" t="n">
-        <v>50.9</v>
+        <v>22.8</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>5847</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>21.1</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1354,22 +1354,22 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R12" t="n">
-        <v>945</v>
+        <v>2035</v>
       </c>
       <c r="S12" t="n">
-        <v>4.6</v>
+        <v>7.3</v>
       </c>
       <c r="T12" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="U12" t="n">
-        <v>1990</v>
+        <v>2580</v>
       </c>
       <c r="V12" t="n">
-        <v>9.699999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1381,57 +1381,57 @@
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="AA12" t="n">
-        <v>112</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>四</t>
+          <t>三</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>16235</v>
+        <v>24500</v>
       </c>
       <c r="E13" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F13" t="n">
-        <v>7755</v>
+        <v>10240</v>
       </c>
       <c r="G13" t="n">
-        <v>47.8</v>
+        <v>41.8</v>
       </c>
       <c r="H13" t="n">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="I13" t="n">
-        <v>7385</v>
+        <v>6599</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5</v>
+        <v>26.9</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>3936</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>16.1</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1443,22 +1443,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1645</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="T13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U13" t="n">
-        <v>1095</v>
+        <v>2080</v>
       </c>
       <c r="V13" t="n">
-        <v>6.7</v>
+        <v>8.5</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1470,57 +1470,57 @@
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AA13" t="n">
-        <v>101</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>五</t>
+          <t>四</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>20875</v>
+        <v>25275</v>
       </c>
       <c r="E14" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="F14" t="n">
-        <v>8480</v>
+        <v>10435</v>
       </c>
       <c r="G14" t="n">
-        <v>40.6</v>
+        <v>41.3</v>
       </c>
       <c r="H14" t="n">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="I14" t="n">
-        <v>9415</v>
+        <v>6970</v>
       </c>
       <c r="J14" t="n">
-        <v>45.1</v>
+        <v>27.6</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>3770</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>14.9</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1532,22 +1532,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>405</v>
+        <v>2045</v>
       </c>
       <c r="S14" t="n">
-        <v>1.9</v>
+        <v>8.1</v>
       </c>
       <c r="T14" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="U14" t="n">
-        <v>2575</v>
+        <v>2055</v>
       </c>
       <c r="V14" t="n">
-        <v>12.3</v>
+        <v>8.1</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1559,84 +1559,84 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="AA14" t="n">
-        <v>107</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2019-12-14</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>六</t>
+          <t>五</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>23445</v>
+        <v>31283</v>
       </c>
       <c r="E15" t="n">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="F15" t="n">
-        <v>7240</v>
+        <v>10855</v>
       </c>
       <c r="G15" t="n">
-        <v>30.9</v>
+        <v>34.7</v>
       </c>
       <c r="H15" t="n">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="I15" t="n">
-        <v>9805</v>
+        <v>6031</v>
       </c>
       <c r="J15" t="n">
-        <v>41.8</v>
+        <v>19.3</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="L15" t="n">
-        <v>200</v>
+        <v>6307</v>
       </c>
       <c r="M15" t="n">
-        <v>0.9</v>
+        <v>20.2</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>10.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
-        <v>2185</v>
+        <v>2680</v>
       </c>
       <c r="S15" t="n">
-        <v>9.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="T15" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="U15" t="n">
-        <v>4015</v>
+        <v>2210</v>
       </c>
       <c r="V15" t="n">
-        <v>17.1</v>
+        <v>7.1</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1648,57 +1648,57 @@
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AA15" t="n">
-        <v>145</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2019-12-15</t>
+          <t>2019-12-14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>六</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>30060</v>
+        <v>31695</v>
       </c>
       <c r="E16" t="n">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="F16" t="n">
-        <v>8940</v>
+        <v>14585</v>
       </c>
       <c r="G16" t="n">
-        <v>29.7</v>
+        <v>46</v>
       </c>
       <c r="H16" t="n">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="I16" t="n">
-        <v>14040</v>
+        <v>7780</v>
       </c>
       <c r="J16" t="n">
-        <v>46.7</v>
+        <v>24.5</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>3145</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1710,23 +1710,23 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3645</v>
+      </c>
+      <c r="S16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2540</v>
+      </c>
+      <c r="V16" t="n">
         <v>8</v>
       </c>
-      <c r="R16" t="n">
-        <v>1765</v>
-      </c>
-      <c r="S16" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="T16" t="n">
-        <v>21</v>
-      </c>
-      <c r="U16" t="n">
-        <v>5315</v>
-      </c>
-      <c r="V16" t="n">
-        <v>17.7</v>
-      </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
@@ -1737,57 +1737,57 @@
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="AA16" t="n">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-15</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>一</t>
+          <t>日</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>15330</v>
+        <v>31515</v>
       </c>
       <c r="E17" t="n">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="F17" t="n">
-        <v>5310</v>
+        <v>15590</v>
       </c>
       <c r="G17" t="n">
-        <v>34.6</v>
+        <v>49.5</v>
       </c>
       <c r="H17" t="n">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="I17" t="n">
-        <v>7990</v>
+        <v>9660</v>
       </c>
       <c r="J17" t="n">
-        <v>52.1</v>
+        <v>30.7</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="L17" t="n">
-        <v>190</v>
+        <v>2365</v>
       </c>
       <c r="M17" t="n">
-        <v>1.2</v>
+        <v>7.5</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1802,19 +1802,19 @@
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>200</v>
+        <v>2245</v>
       </c>
       <c r="S17" t="n">
-        <v>1.3</v>
+        <v>7.1</v>
       </c>
       <c r="T17" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U17" t="n">
-        <v>1640</v>
+        <v>1655</v>
       </c>
       <c r="V17" t="n">
-        <v>10.7</v>
+        <v>5.3</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1826,57 +1826,57 @@
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="AA17" t="n">
-        <v>101</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>二</t>
+          <t>一</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>16675</v>
+        <v>22050</v>
       </c>
       <c r="E18" t="n">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="F18" t="n">
-        <v>6030</v>
+        <v>9880</v>
       </c>
       <c r="G18" t="n">
-        <v>36.2</v>
+        <v>44.8</v>
       </c>
       <c r="H18" t="n">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="I18" t="n">
-        <v>8290</v>
+        <v>6450</v>
       </c>
       <c r="J18" t="n">
-        <v>49.7</v>
+        <v>29.3</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L18" t="n">
-        <v>60</v>
+        <v>215</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1888,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R18" t="n">
-        <v>1000</v>
+        <v>3355</v>
       </c>
       <c r="S18" t="n">
-        <v>6</v>
+        <v>15.2</v>
       </c>
       <c r="T18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U18" t="n">
-        <v>1295</v>
+        <v>2150</v>
       </c>
       <c r="V18" t="n">
-        <v>7.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1915,57 +1915,57 @@
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="AA18" t="n">
-        <v>97</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>三</t>
+          <t>二</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>17170</v>
+        <v>32085</v>
       </c>
       <c r="E19" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="F19" t="n">
-        <v>7315</v>
+        <v>11260</v>
       </c>
       <c r="G19" t="n">
-        <v>42.6</v>
+        <v>35.1</v>
       </c>
       <c r="H19" t="n">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="I19" t="n">
-        <v>7570</v>
+        <v>6340</v>
       </c>
       <c r="J19" t="n">
-        <v>44.1</v>
+        <v>19.8</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>8145</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>25.4</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1977,22 +1977,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
-        <v>850</v>
+        <v>4030</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>12.6</v>
       </c>
       <c r="T19" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="U19" t="n">
-        <v>1435</v>
+        <v>2310</v>
       </c>
       <c r="V19" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2004,84 +2004,84 @@
         <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AA19" t="n">
-        <v>100</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>四</t>
+          <t>三</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>17220</v>
+        <v>35047</v>
       </c>
       <c r="E20" t="n">
+        <v>85</v>
+      </c>
+      <c r="F20" t="n">
+        <v>11830</v>
+      </c>
+      <c r="G20" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="H20" t="n">
         <v>64</v>
       </c>
-      <c r="F20" t="n">
-        <v>7325</v>
-      </c>
-      <c r="G20" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H20" t="n">
-        <v>99</v>
-      </c>
       <c r="I20" t="n">
-        <v>6280</v>
+        <v>5945</v>
       </c>
       <c r="J20" t="n">
-        <v>36.5</v>
+        <v>17</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>5647</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>16.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>6370</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>18.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R20" t="n">
-        <v>1210</v>
+        <v>3090</v>
       </c>
       <c r="S20" t="n">
-        <v>7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="T20" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="U20" t="n">
-        <v>2405</v>
+        <v>2165</v>
       </c>
       <c r="V20" t="n">
-        <v>14</v>
+        <v>6.2</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2093,57 +2093,57 @@
         <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="AA20" t="n">
-        <v>93</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>五</t>
+          <t>四</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>19624</v>
+        <v>25820</v>
       </c>
       <c r="E21" t="n">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="F21" t="n">
-        <v>5940</v>
+        <v>9475</v>
       </c>
       <c r="G21" t="n">
-        <v>30.3</v>
+        <v>36.7</v>
       </c>
       <c r="H21" t="n">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="I21" t="n">
-        <v>11119</v>
+        <v>4510</v>
       </c>
       <c r="J21" t="n">
-        <v>56.7</v>
+        <v>17.5</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>8080</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>31.3</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2155,22 +2155,22 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
-        <v>715</v>
+        <v>1585</v>
       </c>
       <c r="S21" t="n">
-        <v>3.6</v>
+        <v>6.1</v>
       </c>
       <c r="T21" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="U21" t="n">
-        <v>1850</v>
+        <v>2170</v>
       </c>
       <c r="V21" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2182,57 +2182,57 @@
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="AA21" t="n">
-        <v>120</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2019-12-21</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>六</t>
+          <t>五</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>27015</v>
+        <v>28775</v>
       </c>
       <c r="E22" t="n">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F22" t="n">
-        <v>10935</v>
+        <v>9490</v>
       </c>
       <c r="G22" t="n">
-        <v>40.5</v>
+        <v>33</v>
       </c>
       <c r="H22" t="n">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="I22" t="n">
-        <v>8905</v>
+        <v>7665</v>
       </c>
       <c r="J22" t="n">
-        <v>33</v>
+        <v>26.6</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>2715</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>1755</v>
+        <v>7110</v>
       </c>
       <c r="S22" t="n">
-        <v>6.5</v>
+        <v>24.7</v>
       </c>
       <c r="T22" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="U22" t="n">
-        <v>5420</v>
+        <v>1795</v>
       </c>
       <c r="V22" t="n">
-        <v>20.1</v>
+        <v>6.2</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2271,84 +2271,84 @@
         <v>0</v>
       </c>
       <c r="Z22" t="n">
+        <v>157</v>
+      </c>
+      <c r="AA22" t="n">
         <v>183</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>148</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2019-12-22</t>
+          <t>2019-12-21</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>六</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>27070</v>
+        <v>30960</v>
       </c>
       <c r="E23" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F23" t="n">
-        <v>10470</v>
+        <v>12460</v>
       </c>
       <c r="G23" t="n">
-        <v>38.7</v>
+        <v>40.2</v>
       </c>
       <c r="H23" t="n">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="I23" t="n">
-        <v>10355</v>
+        <v>6035</v>
       </c>
       <c r="J23" t="n">
-        <v>38.3</v>
+        <v>19.5</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>3740</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>2855</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
-        <v>1215</v>
+        <v>3210</v>
       </c>
       <c r="S23" t="n">
-        <v>4.5</v>
+        <v>10.4</v>
       </c>
       <c r="T23" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="U23" t="n">
-        <v>5030</v>
+        <v>2660</v>
       </c>
       <c r="V23" t="n">
-        <v>18.6</v>
+        <v>8.6</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2360,57 +2360,57 @@
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="AA23" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-22</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>一</t>
+          <t>日</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>18825</v>
+        <v>35720</v>
       </c>
       <c r="E24" t="n">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="F24" t="n">
-        <v>7465</v>
+        <v>13245</v>
       </c>
       <c r="G24" t="n">
-        <v>39.7</v>
+        <v>37.1</v>
       </c>
       <c r="H24" t="n">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="I24" t="n">
-        <v>8450</v>
+        <v>7425</v>
       </c>
       <c r="J24" t="n">
-        <v>44.9</v>
+        <v>20.8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>9140</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>25.6</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2422,22 +2422,22 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R24" t="n">
-        <v>695</v>
+        <v>3905</v>
       </c>
       <c r="S24" t="n">
-        <v>3.7</v>
+        <v>10.9</v>
       </c>
       <c r="T24" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="U24" t="n">
-        <v>2215</v>
+        <v>2005</v>
       </c>
       <c r="V24" t="n">
-        <v>11.8</v>
+        <v>5.6</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2449,57 +2449,57 @@
         <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="AA24" t="n">
-        <v>112</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>二</t>
+          <t>一</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>15730</v>
+        <v>26550</v>
       </c>
       <c r="E25" t="n">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="F25" t="n">
-        <v>7345</v>
+        <v>11845</v>
       </c>
       <c r="G25" t="n">
-        <v>46.7</v>
+        <v>44.6</v>
       </c>
       <c r="H25" t="n">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="I25" t="n">
-        <v>5170</v>
+        <v>6405</v>
       </c>
       <c r="J25" t="n">
-        <v>32.9</v>
+        <v>24.1</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>2455</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2511,22 +2511,22 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
-        <v>895</v>
+        <v>1415</v>
       </c>
       <c r="S25" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="T25" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="U25" t="n">
-        <v>2320</v>
+        <v>4430</v>
       </c>
       <c r="V25" t="n">
-        <v>14.7</v>
+        <v>16.7</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2538,57 +2538,57 @@
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="AA25" t="n">
-        <v>97</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2019-12-25</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>三</t>
+          <t>二</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>19165</v>
+        <v>24435</v>
       </c>
       <c r="E26" t="n">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="F26" t="n">
-        <v>7175</v>
+        <v>9295</v>
       </c>
       <c r="G26" t="n">
-        <v>37.4</v>
+        <v>38</v>
       </c>
       <c r="H26" t="n">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="I26" t="n">
-        <v>8735</v>
+        <v>5940</v>
       </c>
       <c r="J26" t="n">
-        <v>45.6</v>
+        <v>24.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>2075</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2600,22 +2600,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R26" t="n">
-        <v>1025</v>
+        <v>3595</v>
       </c>
       <c r="S26" t="n">
-        <v>5.3</v>
+        <v>14.7</v>
       </c>
       <c r="T26" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="U26" t="n">
-        <v>2230</v>
+        <v>3530</v>
       </c>
       <c r="V26" t="n">
-        <v>11.6</v>
+        <v>14.4</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2627,57 +2627,57 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="AA26" t="n">
-        <v>96</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-25</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>四</t>
+          <t>三</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>18225</v>
+        <v>27295</v>
       </c>
       <c r="E27" t="n">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="F27" t="n">
-        <v>7430</v>
+        <v>12320</v>
       </c>
       <c r="G27" t="n">
-        <v>40.8</v>
+        <v>45.1</v>
       </c>
       <c r="H27" t="n">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="I27" t="n">
-        <v>8375</v>
+        <v>6725</v>
       </c>
       <c r="J27" t="n">
-        <v>46</v>
+        <v>24.6</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>3710</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -2689,22 +2689,22 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R27" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="S27" t="n">
-        <v>9.9</v>
+        <v>5.9</v>
       </c>
       <c r="T27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U27" t="n">
-        <v>620</v>
+        <v>2940</v>
       </c>
       <c r="V27" t="n">
-        <v>3.4</v>
+        <v>10.8</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2716,57 +2716,57 @@
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="AA27" t="n">
-        <v>95</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>五</t>
+          <t>四</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>17330</v>
+        <v>23690</v>
       </c>
       <c r="E28" t="n">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F28" t="n">
-        <v>6540</v>
+        <v>8675</v>
       </c>
       <c r="G28" t="n">
-        <v>37.7</v>
+        <v>36.6</v>
       </c>
       <c r="H28" t="n">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="I28" t="n">
-        <v>7835</v>
+        <v>5430</v>
       </c>
       <c r="J28" t="n">
-        <v>45.2</v>
+        <v>22.9</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>3975</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R28" t="n">
-        <v>175</v>
+        <v>2015</v>
       </c>
       <c r="S28" t="n">
-        <v>1</v>
+        <v>8.5</v>
       </c>
       <c r="T28" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="U28" t="n">
-        <v>2780</v>
+        <v>3595</v>
       </c>
       <c r="V28" t="n">
-        <v>16</v>
+        <v>15.2</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2805,57 +2805,57 @@
         <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="AA28" t="n">
-        <v>97</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2019-12-28</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>六</t>
+          <t>五</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>22085</v>
+        <v>30125</v>
       </c>
       <c r="E29" t="n">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F29" t="n">
-        <v>10595</v>
+        <v>12030</v>
       </c>
       <c r="G29" t="n">
-        <v>48</v>
+        <v>39.9</v>
       </c>
       <c r="H29" t="n">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="I29" t="n">
-        <v>7700</v>
+        <v>7270</v>
       </c>
       <c r="J29" t="n">
-        <v>34.9</v>
+        <v>24.1</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>2635</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2867,22 +2867,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R29" t="n">
-        <v>1435</v>
+        <v>2030</v>
       </c>
       <c r="S29" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="T29" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="U29" t="n">
-        <v>2355</v>
+        <v>6160</v>
       </c>
       <c r="V29" t="n">
-        <v>10.7</v>
+        <v>20.4</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2894,57 +2894,57 @@
         <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="AA29" t="n">
-        <v>123</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2019-12-29</t>
+          <t>2019-12-28</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>六</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>30050</v>
+        <v>30450</v>
       </c>
       <c r="E30" t="n">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="F30" t="n">
-        <v>7885</v>
+        <v>12095</v>
       </c>
       <c r="G30" t="n">
-        <v>26.2</v>
+        <v>39.7</v>
       </c>
       <c r="H30" t="n">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="I30" t="n">
-        <v>11730</v>
+        <v>5885</v>
       </c>
       <c r="J30" t="n">
-        <v>39</v>
+        <v>19.3</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>2615</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2956,22 +2956,22 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="R30" t="n">
-        <v>5025</v>
+        <v>6295</v>
       </c>
       <c r="S30" t="n">
-        <v>16.7</v>
+        <v>20.7</v>
       </c>
       <c r="T30" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="U30" t="n">
-        <v>5410</v>
+        <v>3560</v>
       </c>
       <c r="V30" t="n">
-        <v>18</v>
+        <v>11.7</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2983,57 +2983,57 @@
         <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="AA30" t="n">
-        <v>162</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-29</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>一</t>
+          <t>日</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>19015</v>
+        <v>35080</v>
       </c>
       <c r="E31" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="F31" t="n">
-        <v>7080</v>
+        <v>12225</v>
       </c>
       <c r="G31" t="n">
-        <v>37.2</v>
+        <v>34.8</v>
       </c>
       <c r="H31" t="n">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="I31" t="n">
-        <v>7650</v>
+        <v>7830</v>
       </c>
       <c r="J31" t="n">
-        <v>40.2</v>
+        <v>22.3</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>4750</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -3045,22 +3045,22 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R31" t="n">
-        <v>1480</v>
+        <v>4220</v>
       </c>
       <c r="S31" t="n">
-        <v>7.8</v>
+        <v>12</v>
       </c>
       <c r="T31" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="U31" t="n">
-        <v>2805</v>
+        <v>6055</v>
       </c>
       <c r="V31" t="n">
-        <v>14.8</v>
+        <v>17.3</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3072,57 +3072,57 @@
         <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>186</v>
+        <v>135</v>
       </c>
       <c r="AA31" t="n">
-        <v>102</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>二</t>
+          <t>一</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>21537</v>
+        <v>24870</v>
       </c>
       <c r="E32" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F32" t="n">
-        <v>7705</v>
+        <v>7775</v>
       </c>
       <c r="G32" t="n">
-        <v>35.8</v>
+        <v>31.3</v>
       </c>
       <c r="H32" t="n">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="I32" t="n">
-        <v>7947</v>
+        <v>6710</v>
       </c>
       <c r="J32" t="n">
-        <v>36.9</v>
+        <v>27</v>
       </c>
       <c r="K32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L32" t="n">
-        <v>495</v>
+        <v>4825</v>
       </c>
       <c r="M32" t="n">
-        <v>2.3</v>
+        <v>19.4</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -3134,22 +3134,22 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="R32" t="n">
-        <v>3370</v>
+        <v>2560</v>
       </c>
       <c r="S32" t="n">
-        <v>15.6</v>
+        <v>10.3</v>
       </c>
       <c r="T32" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="U32" t="n">
-        <v>2020</v>
+        <v>3000</v>
       </c>
       <c r="V32" t="n">
-        <v>9.4</v>
+        <v>12.1</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3161,91 +3161,180 @@
         <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c r="AA32" t="n">
-        <v>112</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2019-12-31</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>二</t>
+        </is>
+      </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>拉亞杭南</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>35350</v>
+      </c>
+      <c r="E33" t="n">
+        <v>76</v>
+      </c>
+      <c r="F33" t="n">
+        <v>10125</v>
+      </c>
+      <c r="G33" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="H33" t="n">
+        <v>59</v>
+      </c>
+      <c r="I33" t="n">
+        <v>6420</v>
+      </c>
+      <c r="J33" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4</v>
+      </c>
+      <c r="L33" t="n">
+        <v>13530</v>
+      </c>
+      <c r="M33" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2290</v>
+      </c>
+      <c r="S33" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2985</v>
+      </c>
+      <c r="V33" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>141</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>小計</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>606405</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1748</v>
-      </c>
-      <c r="F33" t="n">
-        <v>238838</v>
-      </c>
-      <c r="G33" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2897</v>
-      </c>
-      <c r="I33" t="n">
-        <v>247432</v>
-      </c>
-      <c r="J33" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="K33" t="n">
-        <v>6</v>
-      </c>
-      <c r="L33" t="n">
-        <v>945</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>160</v>
-      </c>
-      <c r="R33" t="n">
-        <v>35400</v>
-      </c>
-      <c r="S33" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="T33" t="n">
-        <v>478</v>
-      </c>
-      <c r="U33" t="n">
-        <v>83790</v>
-      </c>
-      <c r="V33" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>5289</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>115</v>
+      <c r="D34" t="n">
+        <v>899925</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2362</v>
+      </c>
+      <c r="F34" t="n">
+        <v>343576</v>
+      </c>
+      <c r="G34" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2046</v>
+      </c>
+      <c r="I34" t="n">
+        <v>216039</v>
+      </c>
+      <c r="J34" t="n">
+        <v>24</v>
+      </c>
+      <c r="K34" t="n">
+        <v>348</v>
+      </c>
+      <c r="L34" t="n">
+        <v>148970</v>
+      </c>
+      <c r="M34" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="N34" t="n">
+        <v>5</v>
+      </c>
+      <c r="O34" t="n">
+        <v>12425</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>30</v>
+      </c>
+      <c r="R34" t="n">
+        <v>88125</v>
+      </c>
+      <c r="S34" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="T34" t="n">
+        <v>31</v>
+      </c>
+      <c r="U34" t="n">
+        <v>90790</v>
+      </c>
+      <c r="V34" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>4822</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
